--- a/results/MLP_parallel/s_MLP_parallel_t_simglucose_data_insilico_seed_25_2025-02-08_PH_30/output.xlsx
+++ b/results/MLP_parallel/s_MLP_parallel_t_simglucose_data_insilico_seed_25_2025-02-08_PH_30/output.xlsx
@@ -483,12 +483,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.0063235043</t>
+          <t>0.009173228</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.060164463</t>
+          <t>0.078686036</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -515,19 +515,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.0065628896</t>
+          <t>0.014684563</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.06473686</t>
+          <t>0.0831223</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -547,12 +547,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.0211655</t>
+          <t>0.021424113</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.10963607</t>
+          <t>0.110698275</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -579,12 +579,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.019357812</t>
+          <t>0.01987446</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.10981052</t>
+          <t>0.11125524</t>
         </is>
       </c>
       <c r="D5" t="n">
